--- a/GID_Test_Paramers.xlsx
+++ b/GID_Test_Paramers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\GitHub\acse-9-independent-research-project-mt5918\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD615C8A-8D68-451D-AB5E-BBB3ECC0F270}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15899E58-DE81-4890-9A04-DFA28AFDA35E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{EDE29BB9-BB14-448B-B40B-8F9F774B9AA5}"/>
   </bookViews>
@@ -31,37 +31,199 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>elem vol</t>
-  </si>
-  <si>
-    <t>young's m</t>
-  </si>
-  <si>
-    <t>pe</t>
-  </si>
-  <si>
-    <t>pc</t>
-  </si>
-  <si>
-    <t>dt</t>
-  </si>
-  <si>
-    <t>density</t>
-  </si>
-  <si>
-    <t>crit dt</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="62">
+  <si>
+    <t>total real simulation time</t>
+  </si>
+  <si>
+    <t>maximum number of time steps</t>
+  </si>
+  <si>
+    <t>gravity</t>
+  </si>
+  <si>
+    <t>time step dt</t>
+  </si>
+  <si>
+    <t>output frequency</t>
+  </si>
+  <si>
+    <t>restart save frequency</t>
+  </si>
+  <si>
+    <t>gravity settling stage</t>
+  </si>
+  <si>
+    <t>load ramping stage</t>
+  </si>
+  <si>
+    <t>maximum dimension</t>
+  </si>
+  <si>
+    <t>maximum force</t>
+  </si>
+  <si>
+    <t>maximum velocity</t>
+  </si>
+  <si>
+    <t>maximum stress</t>
+  </si>
+  <si>
+    <t>maximum displacement</t>
+  </si>
+  <si>
+    <t>maximum joint aperture</t>
+  </si>
+  <si>
+    <t>maximum contacting couples</t>
+  </si>
+  <si>
+    <t>buffer size for NBS</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>joint friction model</t>
+  </si>
+  <si>
+    <t>initial aperture correlation</t>
+  </si>
+  <si>
+    <t>density rho</t>
+  </si>
+  <si>
+    <t>young's modulus rho</t>
+  </si>
+  <si>
+    <t>glass</t>
+  </si>
+  <si>
+    <t>steel</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>projectile mesh size</t>
+  </si>
+  <si>
+    <t>total minimum element volume</t>
+  </si>
+  <si>
+    <t>total minimum edge</t>
+  </si>
+  <si>
+    <t>problem data</t>
+  </si>
+  <si>
+    <t>mesh size</t>
+  </si>
+  <si>
+    <t>bonus problem data</t>
+  </si>
+  <si>
+    <t>test no</t>
+  </si>
+  <si>
+    <t>pvb</t>
+  </si>
+  <si>
+    <t>jrc0</t>
+  </si>
+  <si>
+    <t>jcs0</t>
+  </si>
+  <si>
+    <t>tensile strength</t>
+  </si>
+  <si>
+    <t>poisson's ratio</t>
+  </si>
+  <si>
+    <t>mass damping coefficient</t>
+  </si>
+  <si>
+    <t>elastic penalty term</t>
+  </si>
+  <si>
+    <t>contact penalty term</t>
+  </si>
+  <si>
+    <t>mode i energy rate</t>
+  </si>
+  <si>
+    <t>mode ii energy rate</t>
+  </si>
+  <si>
+    <t>internal friction coefficient</t>
+  </si>
+  <si>
+    <t>internal cohesion</t>
+  </si>
+  <si>
+    <t>pore fluid pressure</t>
+  </si>
+  <si>
+    <t>joint friction coefficient</t>
+  </si>
+  <si>
+    <t>joint sample size</t>
+  </si>
+  <si>
+    <t>interface friction coefficient</t>
+  </si>
+  <si>
+    <t>2d problems</t>
+  </si>
+  <si>
+    <t>plane strain</t>
+  </si>
+  <si>
+    <t>critical time step</t>
+  </si>
+  <si>
+    <t>number of output files</t>
+  </si>
+  <si>
+    <t>32bit</t>
+  </si>
+  <si>
+    <t>coulomb</t>
+  </si>
+  <si>
+    <t>roughness</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>ply mesh size</t>
+  </si>
+  <si>
+    <t>interlayer mesh size</t>
+  </si>
+  <si>
+    <t>material of min element volume</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>using glass and steel instead of just rock</t>
+  </si>
+  <si>
+    <t>simple initial simulation, only rock</t>
+  </si>
+  <si>
+    <t>different geometry, glass/pvb/steel, finer mesh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,13 +231,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -90,12 +266,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -412,78 +615,2494 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA94EA70-55D9-4CD8-84D3-EF17A6D6A8A5}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:N115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="11.109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="26.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.21875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:13" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="10">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I2" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3.3700000000000001E-2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3.3700000000000001E-2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4.1300000000000001E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1">
+        <v>10</v>
+      </c>
+      <c r="I13" s="1">
+        <v>10</v>
+      </c>
+      <c r="J13" s="1">
+        <v>10</v>
+      </c>
+      <c r="K13" s="1">
+        <v>10</v>
+      </c>
+      <c r="L13" s="1">
+        <v>10</v>
+      </c>
+      <c r="M13" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="6">
+        <f>SQRT(B11*B98/B102)</f>
+        <v>1.741551032843999E-5</v>
+      </c>
+      <c r="C14" s="6">
+        <f>SQRT(C11*C38/C43)</f>
+        <v>1.0970740305792625E-5</v>
+      </c>
+      <c r="D14" s="6">
+        <f>SQRT(D11*D38/D43)</f>
+        <v>1.8898223650461363E-8</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" ref="D14:M14" si="0">SQRT(E11*E38/E43)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H14" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I14" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J14" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K14" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L14" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M14" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="1">
+        <v>100</v>
+      </c>
+      <c r="C15" s="1">
+        <v>100</v>
+      </c>
+      <c r="D15" s="1">
+        <v>100</v>
+      </c>
+      <c r="E15" s="1">
+        <v>100</v>
+      </c>
+      <c r="F15" s="1">
+        <v>100</v>
+      </c>
+      <c r="G15" s="1">
+        <v>100</v>
+      </c>
+      <c r="H15" s="1">
+        <v>100</v>
+      </c>
+      <c r="I15" s="1">
+        <v>100</v>
+      </c>
+      <c r="J15" s="1">
+        <v>100</v>
+      </c>
+      <c r="K15" s="1">
+        <v>100</v>
+      </c>
+      <c r="L15" s="1">
+        <v>100</v>
+      </c>
+      <c r="M15" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <f>B13/B20</f>
+        <v>99999.999999999985</v>
+      </c>
+      <c r="C18" s="7">
+        <f t="shared" ref="C18:M18" si="1">C13/C20</f>
+        <v>99999.999999999985</v>
+      </c>
+      <c r="D18" s="8">
+        <f>D13/D20</f>
+        <v>100000000</v>
+      </c>
+      <c r="E18" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F18" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G18" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H18" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J18" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K18" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L18" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M18" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="11">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="C19" s="11">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="D19" s="11">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="E19" s="11">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="F19" s="11">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="G19" s="11">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="H19" s="11">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="I19" s="11">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="J19" s="11">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="K19" s="11">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="L19" s="11">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="M19" s="11">
+        <v>-9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="8">
+        <f>ROUNDDOWN(B14,1-(1+INT(LOG10(ABS(B14)))))</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C20" s="8">
+        <f t="shared" ref="C20:M20" si="2">ROUNDDOWN(C14,1-(1+INT(LOG10(ABS(C14)))))</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D20" s="8">
+        <f t="shared" si="2"/>
+        <v>1E-8</v>
+      </c>
+      <c r="E20" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F20" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G20" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H20" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I20" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J20" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K20" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L20" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M20" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="8">
+        <f>B18/B15</f>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="C21" s="8">
+        <f t="shared" ref="C21:M21" si="3">C18/C15</f>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="D21" s="8">
+        <f t="shared" si="3"/>
+        <v>1000000</v>
+      </c>
+      <c r="E21" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F21" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G21" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H21" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J21" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K21" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L21" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M21" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="8">
+        <f>B18</f>
+        <v>99999.999999999985</v>
+      </c>
+      <c r="C22" s="8">
+        <f t="shared" ref="C22:M22" si="4">C18</f>
+        <v>99999.999999999985</v>
+      </c>
+      <c r="D22" s="8">
+        <f t="shared" si="4"/>
+        <v>100000000</v>
+      </c>
+      <c r="E22" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F22" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G22" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H22" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J22" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K22" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L22" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M22" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>3.3700000000000001E-2</v>
-      </c>
-      <c r="C3" s="1">
-        <f>3*10^10</f>
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0</v>
+      </c>
+      <c r="M23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0</v>
+      </c>
+      <c r="M24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="5">
+        <v>10</v>
+      </c>
+      <c r="C25" s="5">
+        <v>10</v>
+      </c>
+      <c r="D25" s="5">
+        <v>10</v>
+      </c>
+      <c r="E25" s="5">
+        <v>10</v>
+      </c>
+      <c r="F25" s="5">
+        <v>10</v>
+      </c>
+      <c r="G25" s="5">
+        <v>10</v>
+      </c>
+      <c r="H25" s="5">
+        <v>10</v>
+      </c>
+      <c r="I25" s="5">
+        <v>10</v>
+      </c>
+      <c r="J25" s="5">
+        <v>10</v>
+      </c>
+      <c r="K25" s="5">
+        <v>10</v>
+      </c>
+      <c r="L25" s="5">
+        <v>10</v>
+      </c>
+      <c r="M25" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="5">
+        <v>100</v>
+      </c>
+      <c r="C27" s="5">
+        <v>100</v>
+      </c>
+      <c r="D27" s="5">
+        <v>100</v>
+      </c>
+      <c r="E27" s="5">
+        <v>100</v>
+      </c>
+      <c r="F27" s="5">
+        <v>100</v>
+      </c>
+      <c r="G27" s="5">
+        <v>100</v>
+      </c>
+      <c r="H27" s="5">
+        <v>100</v>
+      </c>
+      <c r="I27" s="5">
+        <v>100</v>
+      </c>
+      <c r="J27" s="5">
+        <v>100</v>
+      </c>
+      <c r="K27" s="5">
+        <v>100</v>
+      </c>
+      <c r="L27" s="5">
+        <v>100</v>
+      </c>
+      <c r="M27" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="C28" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="D28" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="E28" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="F28" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="G28" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="H28" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I28" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="J28" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="K28" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="L28" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="M28" s="2">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="5">
+        <v>2</v>
+      </c>
+      <c r="C29" s="5">
+        <v>2</v>
+      </c>
+      <c r="D29" s="5">
+        <v>2</v>
+      </c>
+      <c r="E29" s="5">
+        <v>2</v>
+      </c>
+      <c r="F29" s="5">
+        <v>2</v>
+      </c>
+      <c r="G29" s="5">
+        <v>2</v>
+      </c>
+      <c r="H29" s="5">
+        <v>2</v>
+      </c>
+      <c r="I29" s="5">
+        <v>2</v>
+      </c>
+      <c r="J29" s="5">
+        <v>2</v>
+      </c>
+      <c r="K29" s="5">
+        <v>2</v>
+      </c>
+      <c r="L29" s="5">
+        <v>2</v>
+      </c>
+      <c r="M29" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="2">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="C30" s="2">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D30" s="2">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="E30" s="2">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="F30" s="2">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="G30" s="2">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="H30" s="2">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="I30" s="2">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="J30" s="2">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="K30" s="2">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="L30" s="2">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="M30" s="2">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="5">
+        <v>10000000</v>
+      </c>
+      <c r="C31" s="5">
+        <v>10000000</v>
+      </c>
+      <c r="D31" s="5">
+        <v>10000000</v>
+      </c>
+      <c r="E31" s="5">
+        <v>10000000</v>
+      </c>
+      <c r="F31" s="5">
+        <v>10000000</v>
+      </c>
+      <c r="G31" s="5">
+        <v>10000000</v>
+      </c>
+      <c r="H31" s="5">
+        <v>10000000</v>
+      </c>
+      <c r="I31" s="5">
+        <v>10000000</v>
+      </c>
+      <c r="J31" s="5">
+        <v>10000000</v>
+      </c>
+      <c r="K31" s="5">
+        <v>10000000</v>
+      </c>
+      <c r="L31" s="5">
+        <v>10000000</v>
+      </c>
+      <c r="M31" s="5">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="7">
+        <f>B12/10</f>
+        <v>2.7600000000000003E-2</v>
+      </c>
+      <c r="C32" s="7">
+        <f t="shared" ref="C32:M32" si="5">C12/10</f>
+        <v>2.7600000000000003E-2</v>
+      </c>
+      <c r="D32" s="7">
+        <f t="shared" si="5"/>
+        <v>4.1300000000000001E-5</v>
+      </c>
+      <c r="E32" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2500</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2500</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2500</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="2">
+        <v>70000000000</v>
+      </c>
+      <c r="D39" s="2">
+        <v>70000000000</v>
+      </c>
+      <c r="E39" s="2">
+        <v>70000000000</v>
+      </c>
+      <c r="F39" s="2">
+        <v>70000000000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="D40" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="2">
+        <f>10*C39</f>
+        <v>700000000000</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" ref="D42:F42" si="6">10*D39</f>
+        <v>700000000000</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="6"/>
+        <v>700000000000</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="6"/>
+        <v>700000000000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="2">
+        <f>10*C39</f>
+        <v>700000000000</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" ref="D43:F43" si="7">10*D39</f>
+        <v>700000000000</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="7"/>
+        <v>700000000000</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="7"/>
+        <v>700000000000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="5">
+        <v>10</v>
+      </c>
+      <c r="D44" s="5">
+        <v>10</v>
+      </c>
+      <c r="E44" s="5">
+        <v>10</v>
+      </c>
+      <c r="F44" s="5">
+        <v>10</v>
+      </c>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="5">
+        <v>50</v>
+      </c>
+      <c r="D45" s="5">
+        <v>50</v>
+      </c>
+      <c r="E45" s="5">
+        <v>50</v>
+      </c>
+      <c r="F45" s="5">
+        <v>50</v>
+      </c>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="2">
+        <v>34600000</v>
+      </c>
+      <c r="D46" s="2">
+        <v>34600000</v>
+      </c>
+      <c r="E46" s="2">
+        <v>34600000</v>
+      </c>
+      <c r="F46" s="2">
+        <v>34600000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D47" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="2">
+        <v>70000000000</v>
+      </c>
+      <c r="D48" s="2">
+        <v>70000000000</v>
+      </c>
+      <c r="E48" s="2">
+        <v>70000000000</v>
+      </c>
+      <c r="F48" s="2">
+        <v>70000000000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="5">
+        <v>0</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0</v>
+      </c>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D50" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="F50" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="5">
+        <v>15</v>
+      </c>
+      <c r="D51" s="5">
+        <v>15</v>
+      </c>
+      <c r="E51" s="5">
+        <v>15</v>
+      </c>
+      <c r="F51" s="5">
+        <v>15</v>
+      </c>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="5">
+        <v>120</v>
+      </c>
+      <c r="D52" s="5">
+        <v>120</v>
+      </c>
+      <c r="E52" s="5">
+        <v>120</v>
+      </c>
+      <c r="F52" s="5">
+        <v>120</v>
+      </c>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D53" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="F53" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D54" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="F54" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1100</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1100</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="2">
+        <v>220</v>
+      </c>
+      <c r="D59" s="2">
+        <v>220</v>
+      </c>
+      <c r="E59" s="2">
+        <v>220</v>
+      </c>
+      <c r="F59" s="2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" s="5">
+        <v>0.495</v>
+      </c>
+      <c r="D60" s="5">
+        <v>0.495</v>
+      </c>
+      <c r="E60" s="5">
+        <v>0.495</v>
+      </c>
+      <c r="F60" s="5">
+        <v>0.495</v>
+      </c>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" s="5">
+        <v>0</v>
+      </c>
+      <c r="D61" s="5">
+        <v>0</v>
+      </c>
+      <c r="E61" s="5">
+        <v>0</v>
+      </c>
+      <c r="F61" s="5">
+        <v>0</v>
+      </c>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" s="2">
+        <f>10*C59</f>
+        <v>2200</v>
+      </c>
+      <c r="D62" s="2">
+        <f>10*D59</f>
+        <v>2200</v>
+      </c>
+      <c r="E62" s="2">
+        <f>10*E59</f>
+        <v>2200</v>
+      </c>
+      <c r="F62" s="2">
+        <f>10*F59</f>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" s="2">
+        <f>10*C59</f>
+        <v>2200</v>
+      </c>
+      <c r="D63" s="2">
+        <f>10*D59</f>
+        <v>2200</v>
+      </c>
+      <c r="E63" s="2">
+        <f>10*E59</f>
+        <v>2200</v>
+      </c>
+      <c r="F63" s="2">
+        <f>10*F59</f>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64" s="5">
+        <v>20</v>
+      </c>
+      <c r="D64" s="5">
+        <v>20</v>
+      </c>
+      <c r="E64" s="5">
+        <v>20</v>
+      </c>
+      <c r="F64" s="5">
+        <v>20</v>
+      </c>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C65" s="5">
+        <v>2800</v>
+      </c>
+      <c r="D65" s="5">
+        <v>2800</v>
+      </c>
+      <c r="E65" s="5">
+        <v>2800</v>
+      </c>
+      <c r="F65" s="5">
+        <v>2800</v>
+      </c>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="2">
+        <v>20000000</v>
+      </c>
+      <c r="D66" s="2">
+        <v>20000000</v>
+      </c>
+      <c r="E66" s="2">
+        <v>20000000</v>
+      </c>
+      <c r="F66" s="2">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C67" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D67" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="E67" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="F67" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C68" s="2">
+        <v>20000000</v>
+      </c>
+      <c r="D68" s="2">
+        <v>20000000</v>
+      </c>
+      <c r="E68" s="2">
+        <v>20000000</v>
+      </c>
+      <c r="F68" s="2">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" s="5">
+        <v>0</v>
+      </c>
+      <c r="D69" s="5">
+        <v>0</v>
+      </c>
+      <c r="E69" s="5">
+        <v>0</v>
+      </c>
+      <c r="F69" s="5">
+        <v>0</v>
+      </c>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="D70" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="E70" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="F70" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" s="5">
+        <v>15</v>
+      </c>
+      <c r="D71" s="5">
+        <v>15</v>
+      </c>
+      <c r="E71" s="5">
+        <v>15</v>
+      </c>
+      <c r="F71" s="5">
+        <v>15</v>
+      </c>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C72" s="5">
+        <v>120</v>
+      </c>
+      <c r="D72" s="5">
+        <v>120</v>
+      </c>
+      <c r="E72" s="5">
+        <v>120</v>
+      </c>
+      <c r="F72" s="5">
+        <v>120</v>
+      </c>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C73" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D73" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E73" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="F73" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C74" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="D74" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="E74" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="F74" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C78" s="1">
+        <v>7800</v>
+      </c>
+      <c r="D78" s="1">
+        <v>7800</v>
+      </c>
+      <c r="E78" s="1">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C79" s="2">
+        <v>200000000000</v>
+      </c>
+      <c r="D79" s="2">
+        <v>200000000000</v>
+      </c>
+      <c r="E79" s="2">
+        <v>200000000000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C80" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D80" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E80" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C81" s="5">
+        <v>0</v>
+      </c>
+      <c r="D81" s="5">
+        <v>0</v>
+      </c>
+      <c r="E81" s="5">
+        <v>0</v>
+      </c>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="5"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C82" s="2">
+        <f>10*C79</f>
+        <v>2000000000000</v>
+      </c>
+      <c r="D82" s="2">
+        <f>10*D79</f>
+        <v>2000000000000</v>
+      </c>
+      <c r="E82" s="2">
+        <f>10*E79</f>
+        <v>2000000000000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C83" s="2">
+        <f>10*C79</f>
+        <v>2000000000000</v>
+      </c>
+      <c r="D83" s="2">
+        <f>10*D79</f>
+        <v>2000000000000</v>
+      </c>
+      <c r="E83" s="2">
+        <f>10*E79</f>
+        <v>2000000000000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C84" s="2">
+        <v>190000</v>
+      </c>
+      <c r="D84" s="2">
+        <v>190000</v>
+      </c>
+      <c r="E84" s="2">
+        <v>190000</v>
+      </c>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C85" s="2">
+        <v>190000</v>
+      </c>
+      <c r="D85" s="2">
+        <v>190000</v>
+      </c>
+      <c r="E85" s="2">
+        <v>190000</v>
+      </c>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C86" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="D86" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="E86" s="2">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C87" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="D87" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="E87" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C88" s="2">
+        <v>200000000000</v>
+      </c>
+      <c r="D88" s="2">
+        <v>200000000000</v>
+      </c>
+      <c r="E88" s="2">
+        <v>200000000000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C89" s="5">
+        <v>0</v>
+      </c>
+      <c r="D89" s="5">
+        <v>0</v>
+      </c>
+      <c r="E89" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C90" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D90" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E90" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C91" s="5">
+        <v>15</v>
+      </c>
+      <c r="D91" s="5">
+        <v>15</v>
+      </c>
+      <c r="E91" s="5">
+        <v>15</v>
+      </c>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+      <c r="M91" s="5"/>
+      <c r="N91" s="5"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C92" s="5">
+        <v>120</v>
+      </c>
+      <c r="D92" s="5">
+        <v>120</v>
+      </c>
+      <c r="E92" s="5">
+        <v>120</v>
+      </c>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
+      <c r="N92" s="5"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C93" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D93" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E93" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
+      <c r="M93" s="5"/>
+      <c r="N93" s="5"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C94" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="D94" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="E94" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="5"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B98" s="1">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B99" s="2">
         <v>30000000000</v>
       </c>
-      <c r="D3" s="1">
-        <f>10*C3</f>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B100" s="5">
+        <v>0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B101" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B102" s="8">
+        <f>10*B99</f>
         <v>300000000000</v>
       </c>
-      <c r="E3" s="1">
-        <f>D3</f>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B103" s="8">
+        <f>10*B99</f>
         <v>300000000000</v>
       </c>
-      <c r="F3" s="1">
-        <f>SQRT(G3*B3/D3)</f>
-        <v>1.741551032843999E-5</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2700</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1.0000000000000001E-5</v>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B104" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B105" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B106" s="2">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B107" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B108" s="2">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B109" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B110" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B111" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B112" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B113" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B114" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GID_Test_Paramers.xlsx
+++ b/GID_Test_Paramers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\GitHub\acse-9-independent-research-project-mt5918\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F110C40C-D419-4FA6-88AC-92E918829240}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D3461B-8405-49F6-A570-69B90E49F08E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{EDE29BB9-BB14-448B-B40B-8F9F774B9AA5}"/>
   </bookViews>
@@ -693,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA94EA70-55D9-4CD8-84D3-EF17A6D6A8A5}">
   <dimension ref="A1:N115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
